--- a/ResultadoEleicoesDistritos/CASTELO BRANCO_IDANHA-A-NOVA.xlsx
+++ b/ResultadoEleicoesDistritos/CASTELO BRANCO_IDANHA-A-NOVA.xlsx
@@ -597,64 +597,64 @@
         <v>2298</v>
       </c>
       <c r="H2" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I2" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="J2" t="n">
-        <v>982</v>
+        <v>922</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N2" t="n">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="S2" t="n">
         <v>93</v>
       </c>
       <c r="T2" t="n">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="U2" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="V2" t="n">
-        <v>1422</v>
+        <v>1429</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1463</v>
+        <v>1504</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
